--- a/reference/dataRange.xlsx
+++ b/reference/dataRange.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepo\ThreeNodesExampleCalculatorIntegration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepo\ThreeNodesExampleCalculatorIntegration\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC0CCD9-A143-4220-8E35-0A5E59F643B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EA3526-3A3E-4868-B0AA-353864467F59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24810" windowHeight="14620" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8960" yWindow="1240" windowWidth="18440" windowHeight="10510" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bolt" sheetId="1" r:id="rId1"/>
@@ -18,18 +18,27 @@
     <sheet name="wood screw" sheetId="3" r:id="rId3"/>
     <sheet name="nail" sheetId="4" r:id="rId4"/>
     <sheet name="overall" sheetId="5" r:id="rId5"/>
+    <sheet name="bolt dimension" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="83">
   <si>
     <t># design_method=ASD</t>
   </si>
@@ -266,6 +275,18 @@
   </si>
   <si>
     <t>fast_dia=0.138</t>
+  </si>
+  <si>
+    <t>shank dia</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>nut</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B72DF275-4DE5-4189-8A29-59322689F874}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -1333,4 +1354,268 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F96F9A5-5F40-4F1A-8435-B869B0AC3F13}">
+  <dimension ref="B1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>0.25</v>
+      </c>
+      <c r="D2">
+        <v>0.438</v>
+      </c>
+      <c r="E2">
+        <f>D2/B2</f>
+        <v>1.752</v>
+      </c>
+      <c r="F2">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="G2">
+        <f>F2/B2</f>
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="H2">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="I2">
+        <f>H2/B2</f>
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>0.3125</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E10" si="0">D3/B3</f>
+        <v>1.6</v>
+      </c>
+      <c r="F3">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G10" si="1">F3/B3</f>
+        <v>0.67520000000000002</v>
+      </c>
+      <c r="H3">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I10" si="2">H3/B3</f>
+        <v>0.87360000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>0.375</v>
+      </c>
+      <c r="D4">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.4986666666666668</v>
+      </c>
+      <c r="F4">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="H4">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>0.89866666666666672</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>0.4375</v>
+      </c>
+      <c r="D5">
+        <v>0.625</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="F5">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.66514285714285715</v>
+      </c>
+      <c r="H5">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>0.75</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="F6">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="H6">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>0.89600000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>0.625</v>
+      </c>
+      <c r="D7">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1.5007999999999999</v>
+      </c>
+      <c r="F7">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.64480000000000004</v>
+      </c>
+      <c r="H7">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0.89440000000000008</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>0.75</v>
+      </c>
+      <c r="D8">
+        <v>1.125</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="F8">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="H8">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0.88666666666666671</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>0.875</v>
+      </c>
+      <c r="D9">
+        <v>1.3120000000000001</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1.4994285714285716</v>
+      </c>
+      <c r="F9">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.64342857142857135</v>
+      </c>
+      <c r="H9">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0.8868571428571429</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1.5</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="F10">
+        <v>0.627</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.627</v>
+      </c>
+      <c r="H10">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0.88700000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>